--- a/nmadb/501308.xlsx
+++ b/nmadb/501308.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14040" windowHeight="11760"/>
@@ -11,28 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Table II</t>
   </si>
   <si>
@@ -40,9 +28,6 @@
   </si>
   <si>
     <t>Harmful</t>
-  </si>
-  <si>
-    <t>log(HR)</t>
   </si>
   <si>
     <t>Bolis</t>
@@ -243,12 +228,30 @@
       <t>Chemotherapy regimens for ovarian cancer</t>
     </r>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect=log(HR)</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -422,7 +425,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -457,7 +459,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,14 +634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
@@ -648,38 +649,39 @@
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6">
         <v>2002</v>
@@ -700,21 +702,21 @@
         <v>7.0369289791134881E-2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <v>2002</v>
@@ -738,12 +740,12 @@
         <v>2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6">
         <v>2002</v>
@@ -767,12 +769,12 @@
         <v>3</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>2001</v>
@@ -796,12 +798,12 @@
         <v>4</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6">
         <v>2001</v>
@@ -825,12 +827,12 @@
         <v>5</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6">
         <v>2001</v>
@@ -854,12 +856,12 @@
         <v>6</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6">
         <v>2000</v>
@@ -883,12 +885,12 @@
         <v>7</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6">
         <v>2000</v>
@@ -912,12 +914,12 @@
         <v>8</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>2000</v>
@@ -941,12 +943,12 @@
         <v>9</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
         <v>2000</v>
@@ -967,9 +969,9 @@
         <v>0.109734110467074</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" s="6">
         <v>1999</v>
@@ -989,10 +991,13 @@
       <c r="G12" s="5">
         <v>0.24620174451047255</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6">
         <v>1998</v>
@@ -1013,9 +1018,9 @@
         <v>7.6337474414601897E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="5" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>1998</v>
@@ -1036,9 +1041,9 @@
         <v>0.15886696006407375</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6">
         <v>1997</v>
@@ -1059,9 +1064,9 @@
         <v>0.34815531160675978</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="5" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16" s="6">
         <v>1997</v>
@@ -1082,9 +1087,9 @@
         <v>0.17479056324641787</v>
       </c>
     </row>
-    <row r="17" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" s="6">
         <v>1996</v>
@@ -1105,9 +1110,9 @@
         <v>0.19761860236323908</v>
       </c>
     </row>
-    <row r="18" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" s="5" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6">
         <v>1996</v>
@@ -1128,9 +1133,9 @@
         <v>0.11989888656697359</v>
       </c>
     </row>
-    <row r="19" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6">
         <v>1996</v>
@@ -1151,9 +1156,9 @@
         <v>0.1499455767937154</v>
       </c>
     </row>
-    <row r="20" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94" s="5" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6">
         <v>1996</v>
@@ -1174,9 +1179,9 @@
         <v>0.11153413378871958</v>
       </c>
     </row>
-    <row r="21" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" s="5" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>1996</v>
@@ -1197,9 +1202,9 @@
         <v>0.1471267412811145</v>
       </c>
     </row>
-    <row r="22" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94" s="5" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6">
         <v>1994</v>
@@ -1220,9 +1225,9 @@
         <v>0.34371324094366806</v>
       </c>
     </row>
-    <row r="23" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94" s="5" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B23" s="6">
         <v>1994</v>
@@ -1243,9 +1248,9 @@
         <v>0.1601308933341721</v>
       </c>
     </row>
-    <row r="24" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:94" s="5" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" s="6">
         <v>1993</v>
@@ -1266,9 +1271,9 @@
         <v>0.19426250281513413</v>
       </c>
     </row>
-    <row r="25" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:94" s="3" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6">
         <v>1992</v>
@@ -1376,9 +1381,9 @@
       <c r="CO25" s="5"/>
       <c r="CP25" s="5"/>
     </row>
-    <row r="26" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:94" s="5" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B26" s="6">
         <v>1992</v>
@@ -1399,9 +1404,9 @@
         <v>0.10255710604341368</v>
       </c>
     </row>
-    <row r="27" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:94" s="5" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" s="6">
         <v>1992</v>
@@ -1422,9 +1427,9 @@
         <v>0.19302565891611406</v>
       </c>
     </row>
-    <row r="28" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:94" s="3" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6">
         <v>1991</v>
@@ -1532,9 +1537,9 @@
       <c r="CO28" s="5"/>
       <c r="CP28" s="5"/>
     </row>
-    <row r="29" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:94" s="5" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6">
         <v>1990</v>
@@ -1555,9 +1560,9 @@
         <v>0.22797745063931213</v>
       </c>
     </row>
-    <row r="30" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:94" s="3" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" s="6">
         <v>1990</v>
@@ -1665,9 +1670,9 @@
       <c r="CO30" s="5"/>
       <c r="CP30" s="5"/>
     </row>
-    <row r="31" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:94" s="5" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>1989</v>
@@ -1688,9 +1693,9 @@
         <v>0.26073920687154051</v>
       </c>
     </row>
-    <row r="32" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:94" s="5" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6">
         <v>1987</v>
@@ -1711,9 +1716,9 @@
         <v>0.17214831105764589</v>
       </c>
     </row>
-    <row r="33" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" s="5" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6">
         <v>1987</v>
@@ -1734,9 +1739,9 @@
         <v>0.47304991702779103</v>
       </c>
     </row>
-    <row r="34" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:94" s="3" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="6">
         <v>1987</v>
@@ -1844,9 +1849,9 @@
       <c r="CO34" s="5"/>
       <c r="CP34" s="5"/>
     </row>
-    <row r="35" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:94" s="5" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" s="6">
         <v>1986</v>
@@ -1867,9 +1872,9 @@
         <v>0.22362030095677807</v>
       </c>
     </row>
-    <row r="36" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:94" s="5" customFormat="1">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6">
         <v>1985</v>
@@ -1890,9 +1895,9 @@
         <v>0.23571857372723093</v>
       </c>
     </row>
-    <row r="37" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:94" s="5" customFormat="1">
       <c r="A37" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B37" s="6">
         <v>1985</v>
@@ -1913,9 +1918,9 @@
         <v>0.25650964699207707</v>
       </c>
     </row>
-    <row r="38" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:94" s="3" customFormat="1">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B38" s="6">
         <v>1985</v>
@@ -2023,9 +2028,9 @@
       <c r="CO38" s="5"/>
       <c r="CP38" s="5"/>
     </row>
-    <row r="39" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:94" s="3" customFormat="1">
       <c r="A39" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B39" s="6">
         <v>1985</v>
@@ -2133,9 +2138,9 @@
       <c r="CO39" s="5"/>
       <c r="CP39" s="5"/>
     </row>
-    <row r="40" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:94" s="3" customFormat="1">
       <c r="A40" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6">
         <v>1985</v>
@@ -2243,9 +2248,9 @@
       <c r="CO40" s="5"/>
       <c r="CP40" s="5"/>
     </row>
-    <row r="41" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:94" s="3" customFormat="1">
       <c r="A41" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B41" s="6">
         <v>1985</v>
@@ -2353,9 +2358,9 @@
       <c r="CO41" s="5"/>
       <c r="CP41" s="5"/>
     </row>
-    <row r="42" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:94" s="3" customFormat="1">
       <c r="A42" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B42" s="6">
         <v>1984</v>
@@ -2463,9 +2468,9 @@
       <c r="CO42" s="5"/>
       <c r="CP42" s="5"/>
     </row>
-    <row r="43" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:94" s="3" customFormat="1">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43" s="6">
         <v>1983</v>
@@ -2573,9 +2578,9 @@
       <c r="CO43" s="5"/>
       <c r="CP43" s="5"/>
     </row>
-    <row r="44" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:94" s="3" customFormat="1">
       <c r="A44" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6">
         <v>1982</v>
@@ -2683,9 +2688,9 @@
       <c r="CO44" s="5"/>
       <c r="CP44" s="5"/>
     </row>
-    <row r="45" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:94" s="5" customFormat="1">
       <c r="A45" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B45" s="6">
         <v>1982</v>
@@ -2706,9 +2711,9 @@
         <v>0.37139067570417006</v>
       </c>
     </row>
-    <row r="46" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:94" s="3" customFormat="1">
       <c r="A46" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>1981</v>
@@ -2816,9 +2821,9 @@
       <c r="CO46" s="5"/>
       <c r="CP46" s="5"/>
     </row>
-    <row r="47" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:94" s="3" customFormat="1">
       <c r="A47" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B47" s="6">
         <v>1981</v>
@@ -2926,9 +2931,9 @@
       <c r="CO47" s="5"/>
       <c r="CP47" s="5"/>
     </row>
-    <row r="48" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:94" s="3" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B48" s="6">
         <v>1980</v>
@@ -3036,9 +3041,9 @@
       <c r="CO48" s="5"/>
       <c r="CP48" s="5"/>
     </row>
-    <row r="49" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:94" s="3" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B49" s="6">
         <v>1991</v>
@@ -3146,9 +3151,9 @@
       <c r="CO49" s="5"/>
       <c r="CP49" s="5"/>
     </row>
-    <row r="50" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:94" s="3" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B50" s="6">
         <v>1992</v>
@@ -3256,9 +3261,9 @@
       <c r="CO50" s="5"/>
       <c r="CP50" s="5"/>
     </row>
-    <row r="51" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" s="3" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B51" s="6">
         <v>1992</v>
@@ -3366,9 +3371,9 @@
       <c r="CO51" s="5"/>
       <c r="CP51" s="5"/>
     </row>
-    <row r="52" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:94" s="3" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6">
         <v>1991</v>
@@ -3476,9 +3481,9 @@
       <c r="CO52" s="5"/>
       <c r="CP52" s="5"/>
     </row>
-    <row r="53" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:94" s="3" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B53" s="6">
         <v>1991</v>
@@ -3586,9 +3591,9 @@
       <c r="CO53" s="5"/>
       <c r="CP53" s="5"/>
     </row>
-    <row r="54" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:94" s="5" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B54" s="6">
         <v>2005</v>
@@ -3609,9 +3614,9 @@
         <v>0.12619801900188449</v>
       </c>
     </row>
-    <row r="55" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:94" s="5" customFormat="1">
       <c r="A55" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B55" s="6">
         <v>2003</v>
@@ -3632,9 +3637,9 @@
         <v>9.0988504768459627E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:94" s="5" customFormat="1">
       <c r="A56" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B56" s="6">
         <v>2004</v>
@@ -3655,9 +3660,9 @@
         <v>0.14548429124823065</v>
       </c>
     </row>
-    <row r="57" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:94" s="5" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B57" s="6">
         <v>2005</v>
@@ -3678,9 +3683,9 @@
         <v>8.688889457232149E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:94" s="5" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B58" s="6">
         <v>2004</v>
@@ -3701,9 +3706,9 @@
         <v>0.15572843349883156</v>
       </c>
     </row>
-    <row r="59" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:94" s="5" customFormat="1">
       <c r="A59" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B59" s="6">
         <v>2006</v>
@@ -3724,9 +3729,9 @@
         <v>0.13080752271945217</v>
       </c>
     </row>
-    <row r="60" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:94" s="5" customFormat="1">
       <c r="A60" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B60" s="6">
         <v>2005</v>
@@ -3747,9 +3752,9 @@
         <v>0.16135779497749714</v>
       </c>
     </row>
-    <row r="61" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:94" s="5" customFormat="1">
       <c r="A61" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B61" s="6">
         <v>2005</v>
@@ -3770,9 +3775,9 @@
         <v>0.4031761166041461</v>
       </c>
     </row>
-    <row r="62" spans="1:94" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:94" s="5" customFormat="1">
       <c r="A62" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B62" s="6">
         <v>1978</v>
@@ -3793,7 +3798,7 @@
         <v>0.31244199461660077</v>
       </c>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:94">
       <c r="C63" s="6"/>
     </row>
   </sheetData>
@@ -3808,24 +3813,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
